--- a/biology/Médecine/1865_en_santé_et_médecine/1865_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1865_en_santé_et_médecine/1865_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1865_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1865_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1865 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1865_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1865_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,12 +523,14 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>11 avril : Louis Pasteur dépose un brevet pour un procédé de conservation du vin par chauffage, généralisé en procédé de pasteurisation.
 13 mai : Georges Clemenceau obtient le doctorat en médecine avec une thèse intitulée De la génération des éléments anatomiques, sous la direction de Charles Robin, un matérialiste ami d'Auguste Comte.
-Jean-Antoine Villemin (1827-1892) démontre que la tuberculose est une maladie contagieuse[1].
-Le terme de « thalassothérapie » apparaît pour la première fois, dans le titre de la thèse de doctorat de Joseph La Bonnardière[2],[3].</t>
+Jean-Antoine Villemin (1827-1892) démontre que la tuberculose est une maladie contagieuse.
+Le terme de « thalassothérapie » apparaît pour la première fois, dans le titre de la thèse de doctorat de Joseph La Bonnardière,.</t>
         </is>
       </c>
     </row>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1865_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1865_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Publication</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Parution de l'Introduction à la médecine expérimentale, de Claude Bernard.</t>
         </is>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1865_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1865_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,7 +590,9 @@
           <t>Naissances</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>28 mars : Bronia Dluska (morte en 1939), médecin polonais, sœur de Marie Curie.
 13 juillet : Gérard Encausse dit Papus (mort en 1916), médecin et occultiste français, cofondateur de l'Ordre martiniste.
@@ -591,7 +609,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1865_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1865_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -609,7 +627,9 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>18 avril : Léon Dufour (né en 1780), médecin et naturaliste français.
 24 avril : Edmond-Léonce Hiffelsheim (né en 1827), médecin français, connu pour ses recherches sur l'électrothérapie.
